--- a/shift_assignments.xlsx
+++ b/shift_assignments.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -450,38 +446,46 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45523</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-08-18 00:00:00</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pham</t>
+          <t>Kielty</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45524</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:00:00</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-08-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Stokes</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45525</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Britt</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45526</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-08-21 00:00:00</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -490,12 +494,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45527</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-08-22 00:00:00</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gubser</t>
+          <t>Steele</t>
         </is>
       </c>
     </row>
@@ -512,52 +518,62 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45530</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-08-25 00:00:00</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vason</t>
+          <t>Dumalig</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45531</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-08-26 00:00:00</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-08-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-08-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Stokes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-08-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Steele</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45532</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Scott-Wellman</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45533</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Parker</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45534</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Noone available</t>
         </is>
       </c>
     </row>
@@ -574,52 +590,62 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45537</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-09-01 00:00:00</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-09-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Kilkenny</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45538</v>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-09-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vason</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-09-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Kielty</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45539</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Jandjel</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45540</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Pham</t>
-        </is>
-      </c>
-    </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45541</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-09-05 00:00:00</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Stokes</t>
+          <t>Martin</t>
         </is>
       </c>
     </row>
@@ -636,52 +662,62 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45544</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-09-08 00:00:00</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Noone available</t>
+          <t>Scott-Wellman</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45545</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-09-09 00:00:00</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Noone available</t>
+          <t>Kilkenny</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45546</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-09-10 00:00:00</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Noone available</t>
+          <t>Gubser</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45547</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-09-11 00:00:00</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Noone available</t>
+          <t>Kielty</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45548</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-09-12 00:00:00</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Noone available</t>
+          <t>Dumalig</t>
         </is>
       </c>
     </row>
@@ -698,28 +734,34 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45551</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-09-15 00:00:00</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Britt</t>
+          <t>Parker</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45552</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dumalig</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45553</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-09-17 00:00:00</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -728,22 +770,26 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45554</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-09-18 00:00:00</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Noone available</t>
+          <t>Gubser</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45555</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-09-19 00:00:00</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Noone available</t>
+          <t>Stokes</t>
         </is>
       </c>
     </row>
@@ -760,52 +806,62 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45558</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-09-22 00:00:00</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-09-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-09-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kilkenny</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-09-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Vason</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45559</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Scott-Wellman</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45560</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Parker</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45561</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Gubser</t>
-        </is>
-      </c>
-    </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45562</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-09-26 00:00:00</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Steele</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
@@ -822,38 +878,46 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45565</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-09-29 00:00:00</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jandjel</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45566</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-09-30 00:00:00</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pham</t>
+          <t>Parker</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45567</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-10-01 00:00:00</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kielty</t>
+          <t>Vason</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45568</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-10-02 00:00:00</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -862,12 +926,14 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45569</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-10-03 00:00:00</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dumalig</t>
+          <t>Stokes</t>
         </is>
       </c>
     </row>
@@ -884,52 +950,62 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45572</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-10-06 00:00:00</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Stokes</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45573</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:00:00</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Vason</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45574</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:00:00</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Scott-Wellman</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45575</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-10-09 00:00:00</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Kielty</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45576</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-10-10 00:00:00</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gubser</t>
+          <t>Dumalig</t>
         </is>
       </c>
     </row>
@@ -946,52 +1022,62 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45579</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-10-13 00:00:00</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>Scott-Wellman</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-10-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-10-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>Martin</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45580</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Jandjel</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="B52" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-10-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Pham</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45582</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Kielty</t>
-        </is>
-      </c>
-    </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45583</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-10-18 00:00:00</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Kilkenny</t>
+          <t>Gubser</t>
         </is>
       </c>
     </row>
@@ -1008,52 +1094,62 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45586</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:00:00</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Steele</t>
+          <t>Scott</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45587</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-10-21 00:00:00</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Vason</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-10-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Kilkenny</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-10-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>Stokes</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Vason</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45589</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Scott-Wellman</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45590</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Parker</t>
         </is>
       </c>
     </row>
@@ -1070,52 +1166,62 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45593</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-10-27 00:00:00</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Britt</t>
+          <t>Dumalig</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45594</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-10-28 00:00:00</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dumalig</t>
+          <t>Kielty</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45595</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-10-29 00:00:00</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jandjel</t>
+          <t>Parker</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45596</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-10-30 00:00:00</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Kielty</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45597</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:00:00</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Kielty</t>
+          <t>Vason</t>
         </is>
       </c>
     </row>
@@ -1132,8 +1238,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45600</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-11-03 00:00:00</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1142,18 +1250,22 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45601</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-11-04 00:00:00</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Steele</t>
+          <t>Parker</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45602</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-11-05 00:00:00</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1162,22 +1274,26 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>45603</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:00:00</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gubser</t>
+          <t>Kilkenny</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>45604</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-11-07 00:00:00</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Scott-Wellman</t>
+          <t>Vason</t>
         </is>
       </c>
     </row>
@@ -1194,52 +1310,62 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>45607</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-11-10 00:00:00</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Kilkenny</t>
+          <t>Scott</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>45608</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:00:00</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Britt</t>
+          <t>Martin</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45609</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-11-12 00:00:00</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>Stokes</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Pham</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-11-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>Dumalig</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45610</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Jandjel</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Martin</t>
         </is>
       </c>
     </row>
@@ -1256,52 +1382,62 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45614</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-11-17 00:00:00</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Vason</t>
+          <t>Pham</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45615</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-11-18 00:00:00</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pham</t>
+          <t>Martin</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>45616</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-11-19 00:00:00</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Steele</t>
+          <t>Parker</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>45617</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-11-20 00:00:00</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Stokes</t>
+          <t>Kilkenny</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>45618</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-11-21 00:00:00</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Dumalig</t>
         </is>
       </c>
     </row>
@@ -1318,52 +1454,62 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>45621</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-11-24 00:00:00</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Kielty</t>
+          <t>Vason</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>45622</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-11-25 00:00:00</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-11-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>Kilkenny</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>45623</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Britt</t>
-        </is>
-      </c>
-    </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>45624</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-11-27 00:00:00</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Dumalig</t>
+          <t>Pham</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>45625</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-11-28 00:00:00</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jandjel</t>
+          <t>Stokes</t>
         </is>
       </c>
     </row>
@@ -1380,12 +1526,14 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>45628</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-12-02 00:00:00</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>

--- a/shift_assignments.xlsx
+++ b/shift_assignments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,26 +441,26 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Assigned Employee</t>
+          <t>Assigned Butt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-14 tues</t>
+          <t>2025-01-21 tues</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Dumalig</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-15 wed</t>
+          <t>2025-01-22 wed</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,12 +472,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-16 thurs</t>
+          <t>2025-01-23 thurs</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gubser</t>
+          <t>Stokes</t>
         </is>
       </c>
     </row>
@@ -496,19 +496,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-19 sun</t>
+          <t>2025-01-26 sun</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stokes</t>
+          <t>Parker</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-20 mon</t>
+          <t>2025-01-27 mon</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,19 +520,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-21 tues</t>
+          <t>2025-01-28 tues</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Scott-Wellman</t>
+          <t>Martin</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-22 wed</t>
+          <t>2025-01-29 wed</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,12 +544,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-23 thurs</t>
+          <t>2025-01-30 thurs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dumalig</t>
+          <t>Martin</t>
         </is>
       </c>
     </row>
@@ -568,19 +568,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-26 sun</t>
+          <t>2025-02-02 sun</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vason</t>
+          <t>Parker</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-27 mon</t>
+          <t>2025-02-03 mon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,36 +592,252 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01-28 tues</t>
+          <t>2025-02-04 tues</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Stokes</t>
+          <t>Vason</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-29 wed</t>
+          <t>2025-02-05 wed</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kielty</t>
+          <t>Kilkenny</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-01-30 thurs</t>
+          <t>2025-02-06 thurs</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Dumalig</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-02-09 sun</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-02-10 mon</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Scott-Wellman</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-02-11 tues</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vason</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-02-12 wed</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Kilkenny</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-02-13 thurs</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Stokes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-02-16 sun</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Kielty</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-02-17 mon</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-02-18 tues</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Vason</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-02-19 wed</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-02-20 thurs</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-02-23 sun</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-02-24 mon</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-02-25 tues</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Vason</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-26 wed</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Kilkenny</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-27 thurs</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Gubser</t>
         </is>
       </c>
     </row>

--- a/shift_assignments.xlsx
+++ b/shift_assignments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,43 +448,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-21 tues</t>
+          <t>2025-01-12 sun</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dumalig</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-22 wed</t>
+          <t>2025-01-13 mon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kielty</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-23 thurs</t>
+          <t>2025-01-14 tues</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stokes</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>2025-01-15 wed</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,103 +496,103 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-26 sun</t>
+          <t>2025-01-16 thurs</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-27 mon</t>
+          <t>...</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-28 tues</t>
+          <t>2025-01-19 sun</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-29 wed</t>
+          <t>2025-01-20 mon</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kielty</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-30 thurs</t>
+          <t>2025-01-21 tues</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Scott-Wellman</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>2025-01-22 wed</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Noone available</t>
+          <t>Kielty</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-02-02 sun</t>
+          <t>2025-01-23 thurs</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Dumalig</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-02-03 mon</t>
+          <t>...</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-02-04 tues</t>
+          <t>2025-01-26 sun</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,240 +604,912 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-02-05 wed</t>
+          <t>2025-01-27 mon</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kilkenny</t>
+          <t>Martin</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-02-06 thurs</t>
+          <t>2025-01-28 tues</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dumalig</t>
+          <t>Stokes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>2025-01-29 wed</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Noone available</t>
+          <t>Kielty</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-02-09 sun</t>
+          <t>2025-01-30 thurs</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Noone available</t>
+          <t>Dumalig</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-02-10 mon</t>
+          <t>...</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Scott-Wellman</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-02-11 tues</t>
+          <t>2025-02-02 sun</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Vason</t>
+          <t>Parker</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-02-12 wed</t>
+          <t>2025-02-03 mon</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kilkenny</t>
+          <t>Kielty</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-02-13 thurs</t>
+          <t>2025-02-04 tues</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Stokes</t>
+          <t>Vason</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>2025-02-05 wed</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Noone available</t>
+          <t>Kilkenny</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-02-16 sun</t>
+          <t>2025-02-06 thurs</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kielty</t>
+          <t>Stokes</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-02-17 mon</t>
+          <t>...</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-02-18 tues</t>
+          <t>2025-02-09 sun</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Vason</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-02-19 wed</t>
+          <t>2025-02-10 mon</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Scott-Wellman</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-02-20 thurs</t>
+          <t>2025-02-11 tues</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Vason</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>2025-02-12 wed</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Noone available</t>
+          <t>Kilkenny</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-02-23 sun</t>
+          <t>2025-02-13 thurs</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Stokes</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-02-24 mon</t>
+          <t>...</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Noone available</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-02-25 tues</t>
+          <t>2025-02-16 sun</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Vason</t>
+          <t>Parker</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-02-26 wed</t>
+          <t>2025-02-17 mon</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Kilkenny</t>
+          <t>Kielty</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>2025-02-18 tues</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Vason</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-19 wed</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Dumalig</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-20 thurs</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Steele</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-23 sun</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-24 mon</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Dumalig</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-25 tues</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Vason</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-26 wed</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Kilkenny</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>2025-02-27 thurs</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Gubser</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-03-02 sun</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Stokes</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-03-03 mon</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-03-04 tues</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-03-05 wed</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Herberger</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-03-06 thurs</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Steele</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-03-09 sun</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-03-10 mon</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-03-11 tues</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-03-12 wed</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-03-13 thurs</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-03-16 sun</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Vason</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-03-17 mon</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-03-18 tues</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Scott-Wellman</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-03-19 wed</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Kilkenny</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-03-20 thurs</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Dumalig</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-03-23 sun</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Scott</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-03-24 mon</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Kielty</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-03-25 tues</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Stokes</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-03-26 wed</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-27 thurs</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Steele</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-03-30 sun</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-03-31 mon</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-04-01 tues</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-04-02 wed</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-04-03 thurs</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Gubser</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-04-06 sun</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Dumalig</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-04-07 mon</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-04-08 tues</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-04-09 wed</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-04-10 thurs</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Stokes</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-04-13 sun</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Scott-Wellman</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-04-14 mon</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-04-15 tues</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-04-16 wed</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Dumalig</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-04-17 thurs</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Noone available</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-04-20 sun</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-04-21 mon</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-04-22 tues</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Stokes</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-04-23 wed</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-04-24 thurs</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Martin</t>
         </is>
       </c>
     </row>
